--- a/需求2.0/v2.0迭代需求20190509刘森.xlsx
+++ b/需求2.0/v2.0迭代需求20190509刘森.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shilei-resource\sihuo\UPLAN\需求2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A54864A-0873-4F5A-B082-8ED1A8AAC442}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B17CFA1C-3471-734E-9939-C0373DECEECF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>一级界面</t>
     <rPh sb="0" eb="4">
@@ -238,12 +237,20 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -305,6 +312,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -435,7 +449,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -502,6 +516,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,8 +537,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,11 +853,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7432A6-1AB5-844E-94E9-2AEB54C6320F}">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -851,18 +868,18 @@
     <col min="7" max="7" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -885,8 +902,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:8" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="14">
@@ -904,8 +921,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
+    <row r="4" spans="1:8" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
       <c r="B4" s="14"/>
       <c r="C4" s="4" t="s">
         <v>16</v>
@@ -916,9 +933,12 @@
         <v>18</v>
       </c>
       <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
+      <c r="H4" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25"/>
       <c r="B5" s="14"/>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -932,8 +952,8 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
+    <row r="6" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
         <v>22</v>
@@ -945,7 +965,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
@@ -966,7 +986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
@@ -981,11 +1001,11 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:8" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="23">
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1000,9 +1020,9 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
+    <row r="10" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="18" t="s">
         <v>23</v>
       </c>
@@ -1012,10 +1032,13 @@
         <v>19</v>
       </c>
       <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
+      <c r="H10" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="19" t="s">
         <v>24</v>
       </c>
@@ -1026,9 +1049,9 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
+    <row r="12" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="19" t="s">
         <v>25</v>
       </c>
@@ -1039,9 +1062,9 @@
       </c>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
+    <row r="13" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="19" t="s">
         <v>26</v>
       </c>
@@ -1052,18 +1075,21 @@
       </c>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="28" t="s">
+    <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="22" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="22" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="12"/>
+      <c r="H14" s="29" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
